--- a/medicine/Sexualité et sexologie/Once_(application)/Once_(application).xlsx
+++ b/medicine/Sexualité et sexologie/Once_(application)/Once_(application).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Once est une application de rencontres sur téléphone mobile, disponible sous Android et iOS ainsi que sur un site web.
-Cette application propose à ses utilisateurs un service de slow dating: chaque jour, un à trois matchs sont proposés par des matchmakers (entremetteurs physiques) à l'utilisateur. Ce dernier peut ensuite choisir de liker, passer ou contacter directement la personne désignée[1].
-Cette application est disponible dans 32 pays et dans sept langues[2].
+Cette application propose à ses utilisateurs un service de slow dating: chaque jour, un à trois matchs sont proposés par des matchmakers (entremetteurs physiques) à l'utilisateur. Ce dernier peut ensuite choisir de liker, passer ou contacter directement la personne désignée.
+Cette application est disponible dans 32 pays et dans sept langues.
 Cependant, depuis 2023, de nombreux témoignage suggèrent que la majorité des profils seraient des faux profils, destinés à faire payer les utilisateurs.
 </t>
         </is>
@@ -514,11 +526,13 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Once a été créé en mars 2015 par Jean Meyer (CEO), Guillaume Sempé (CTO), Guilhem Duché (Product Manager) et Fabrice Fardeau (DA) à Feusisberg en Suisse. Précédemment, Jean Meyer[3] avait cofondé DateMySchool qui est un site de rencontres pour étudiants aux États-Unis[4].
-En juillet 2015, une première collecte de fonds de 3 millions d'euros est faite notamment auprès du fonds de capital-risque Partech Ventures ainsi qu’auprès d’investisseurs privés. Un an plus tard, en juillet 2016, une deuxième collecte de fonds d’environ 5 millions d’euros est conclue, toujours auprès des mêmes investisseurs[5]. En octobre 2016, l'application compte près de trois millions d'utilisateurs dans le monde[6].
-Avec la pandémie de Covid-19 en France, les téléchargements de l'application Once augmentent de 30%[7].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Once a été créé en mars 2015 par Jean Meyer (CEO), Guillaume Sempé (CTO), Guilhem Duché (Product Manager) et Fabrice Fardeau (DA) à Feusisberg en Suisse. Précédemment, Jean Meyer avait cofondé DateMySchool qui est un site de rencontres pour étudiants aux États-Unis.
+En juillet 2015, une première collecte de fonds de 3 millions d'euros est faite notamment auprès du fonds de capital-risque Partech Ventures ainsi qu’auprès d’investisseurs privés. Un an plus tard, en juillet 2016, une deuxième collecte de fonds d’environ 5 millions d’euros est conclue, toujours auprès des mêmes investisseurs. En octobre 2016, l'application compte près de trois millions d'utilisateurs dans le monde.
+Avec la pandémie de Covid-19 en France, les téléchargements de l'application Once augmentent de 30%.
 Depuis 2023, l'application est considéré par beaucoup comme un scam.
 </t>
         </is>
@@ -548,9 +562,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le concept de slow dating développé par Once est inspiré d'une application sud-coréenne nommée i-um[8]. Le concept repose sur la proposition de rencontres plus sélectives et donc plus sérieuses[9].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le concept de slow dating développé par Once est inspiré d'une application sud-coréenne nommée i-um. Le concept repose sur la proposition de rencontres plus sélectives et donc plus sérieuses.
 Cependant, en pratique, afin d'avoir une conversation, il faudra au delà des premiers messages dépenser plus d'un euros par message.
 </t>
         </is>
